--- a/data/literacy_1702.xlsx
+++ b/data/literacy_1702.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D57376-FB8F-BC4D-9DB1-C439FCDE3BCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EC9C8-329D-C844-BF02-6448DDE98D44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="3180" windowWidth="28300" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>학(직)번</t>
   </si>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AG182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="U134" sqref="U134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -10599,9 +10599,7 @@
       <c r="T134" s="1">
         <v>1</v>
       </c>
-      <c r="U134" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="U134" s="1"/>
       <c r="V134" s="1">
         <v>2</v>
       </c>

--- a/data/literacy_1702.xlsx
+++ b/data/literacy_1702.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EC9C8-329D-C844-BF02-6448DDE98D44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7A2B4B-2A72-0943-ABAC-60B743A169C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="3180" windowWidth="28300" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>학(직)번</t>
   </si>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>Group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무응답</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U134" sqref="U134"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -5030,9 +5026,7 @@
       <c r="V59" s="1">
         <v>2</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="W59" s="1"/>
       <c r="X59" s="1">
         <v>1</v>
       </c>
